--- a/������������.xlsx
+++ b/������������.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>Имя</t>
   </si>
@@ -57,27 +60,15 @@
     <t>CORP</t>
   </si>
   <si>
-    <t>deevap</t>
-  </si>
-  <si>
     <t>Алексеев В.Г.</t>
   </si>
   <si>
-    <t>alekseevvg</t>
-  </si>
-  <si>
     <t>Вотинцев А.Н.</t>
   </si>
   <si>
-    <t>votintcevan</t>
-  </si>
-  <si>
     <t>Балабанов В.В.</t>
   </si>
   <si>
-    <t>balabanovv</t>
-  </si>
-  <si>
     <t>Может редактировать оборудование</t>
   </si>
   <si>
@@ -87,51 +78,27 @@
     <t>Цирлин С.Л.</t>
   </si>
   <si>
-    <t>tsirlinsl</t>
-  </si>
-  <si>
     <t>Алексеев В.В.</t>
   </si>
   <si>
-    <t>alekseevvv</t>
-  </si>
-  <si>
     <t>Лукин С.В.</t>
   </si>
   <si>
-    <t>lukinsv</t>
-  </si>
-  <si>
     <t>Борисевич В.И.</t>
   </si>
   <si>
-    <t>borisevitchvi</t>
-  </si>
-  <si>
     <t>Сальников С.М.</t>
   </si>
   <si>
-    <t>salnikovsm</t>
-  </si>
-  <si>
-    <t>chirkari</t>
-  </si>
-  <si>
     <t>Чирка Р.И.</t>
   </si>
   <si>
     <t>Иванов А.В.</t>
   </si>
   <si>
-    <t>ivanovav</t>
-  </si>
-  <si>
     <t>Полянин А.В.</t>
   </si>
   <si>
-    <t>polyaninav</t>
-  </si>
-  <si>
     <t>Русских А.И.</t>
   </si>
   <si>
@@ -147,101 +114,224 @@
     <t>Трефилов А.В.</t>
   </si>
   <si>
-    <t>russkihai</t>
-  </si>
-  <si>
-    <t>gunchenkoaa</t>
-  </si>
-  <si>
-    <t>michailovvv</t>
-  </si>
-  <si>
-    <t>burnischevkn</t>
-  </si>
-  <si>
     <t>Кетова Л.З.</t>
   </si>
   <si>
-    <t>ketovalz</t>
-  </si>
-  <si>
     <t>Фисенко С.В.</t>
   </si>
   <si>
     <t>Кириенко Д.М.</t>
   </si>
   <si>
-    <t>Сентябов А.Н.</t>
-  </si>
-  <si>
-    <t>fisenkosv</t>
-  </si>
-  <si>
-    <t>kirienkodm</t>
-  </si>
-  <si>
-    <t>sentybovan</t>
-  </si>
-  <si>
     <t>Кочеев Н.Н.</t>
   </si>
   <si>
-    <t>kocheevnn</t>
-  </si>
-  <si>
     <t>Логин</t>
   </si>
   <si>
     <t>Лазарев А.И.</t>
   </si>
   <si>
-    <t>lazarevai</t>
-  </si>
-  <si>
     <t>Кузнецов А.И.</t>
   </si>
   <si>
-    <t>kuznetsovai</t>
-  </si>
-  <si>
     <t>Зыков С.Л.</t>
   </si>
   <si>
-    <t>zykovsl</t>
-  </si>
-  <si>
     <t>Никонов А.А.</t>
   </si>
   <si>
-    <t>nikonovaa</t>
-  </si>
-  <si>
     <t>Бякова Т.А.</t>
   </si>
   <si>
-    <t>byakovata</t>
-  </si>
-  <si>
     <t>Чернышов А.Я.</t>
   </si>
   <si>
-    <t>chernyshovaya</t>
-  </si>
-  <si>
     <t>Сидоров В.Л.</t>
   </si>
   <si>
-    <t>sidorovvl</t>
-  </si>
-  <si>
-    <t>trefilovav</t>
+    <t>VotintsevAN</t>
+  </si>
+  <si>
+    <t>DeevAP</t>
+  </si>
+  <si>
+    <t>AlekseevVG</t>
+  </si>
+  <si>
+    <t>BalabanovVV</t>
+  </si>
+  <si>
+    <t>TsirlinSL</t>
+  </si>
+  <si>
+    <t>AlekseevVV</t>
+  </si>
+  <si>
+    <t>LukinSV</t>
+  </si>
+  <si>
+    <t>BorisevichVI</t>
+  </si>
+  <si>
+    <t>SalnikovSM</t>
+  </si>
+  <si>
+    <t>ChirkaRI</t>
+  </si>
+  <si>
+    <t>IvanovAV</t>
+  </si>
+  <si>
+    <t>PolyaninAV</t>
+  </si>
+  <si>
+    <t>RusskihAI</t>
+  </si>
+  <si>
+    <t>GunchenkoAA</t>
+  </si>
+  <si>
+    <t>MihaylovVV</t>
+  </si>
+  <si>
+    <t>BurnyshevKN</t>
+  </si>
+  <si>
+    <t>TrefilovAV</t>
+  </si>
+  <si>
+    <t>KetovaLZ</t>
+  </si>
+  <si>
+    <t>FisenkoSV</t>
+  </si>
+  <si>
+    <t>KirienkoDM</t>
+  </si>
+  <si>
+    <t>SentyabovAA</t>
+  </si>
+  <si>
+    <t>Сентябов А.А.</t>
+  </si>
+  <si>
+    <t>KocheevNN</t>
+  </si>
+  <si>
+    <t>LazarevAI</t>
+  </si>
+  <si>
+    <t>KuznetsovAI</t>
+  </si>
+  <si>
+    <t>ZykovSL</t>
+  </si>
+  <si>
+    <t>NikonovAA</t>
+  </si>
+  <si>
+    <t>ByakovaTA</t>
+  </si>
+  <si>
+    <t>ChernyshevAA</t>
+  </si>
+  <si>
+    <t>SidorovVL</t>
+  </si>
+  <si>
+    <t>Сальников Е.С.</t>
+  </si>
+  <si>
+    <t>SalnikovES</t>
+  </si>
+  <si>
+    <t>Кардышев Н.М.</t>
+  </si>
+  <si>
+    <t>KardyshevNM</t>
+  </si>
+  <si>
+    <t>Шамсуаров Р.А.</t>
+  </si>
+  <si>
+    <t>ShamsuarovRA</t>
+  </si>
+  <si>
+    <t>Васильков В.С.</t>
+  </si>
+  <si>
+    <t>VasilkovVS</t>
+  </si>
+  <si>
+    <t>Бяков А.Г.</t>
+  </si>
+  <si>
+    <t>ByakovAG</t>
+  </si>
+  <si>
+    <t>Шарифулин А.Р.</t>
+  </si>
+  <si>
+    <t>SharifulinAR</t>
+  </si>
+  <si>
+    <t>Бахин В.В.</t>
+  </si>
+  <si>
+    <t>BahinVV</t>
+  </si>
+  <si>
+    <t>Новокрещенов А.В.</t>
+  </si>
+  <si>
+    <t>NovokreschenovAV</t>
+  </si>
+  <si>
+    <t>Шуплецов К.Г.</t>
+  </si>
+  <si>
+    <t>ShupletsovKG</t>
+  </si>
+  <si>
+    <t>Турборемонт</t>
+  </si>
+  <si>
+    <t>Электроремонт</t>
+  </si>
+  <si>
+    <t>Гидроремонт</t>
+  </si>
+  <si>
+    <t>Шлюз</t>
+  </si>
+  <si>
+    <t>Водоканал</t>
+  </si>
+  <si>
+    <t>Чекунова М.В.</t>
+  </si>
+  <si>
+    <t>Баженов С.В.</t>
+  </si>
+  <si>
+    <t>ChekunovaMV</t>
+  </si>
+  <si>
+    <t>BazhenovSV</t>
+  </si>
+  <si>
+    <t>ГЩУ ВотГЭС</t>
+  </si>
+  <si>
+    <t>gschu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +345,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -389,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,57 +521,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -912,25 +965,71 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -944,23 +1043,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N100" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:N100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N105" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N105"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Имя" dataDxfId="15"/>
-    <tableColumn id="2" name="Домен" dataDxfId="14"/>
-    <tableColumn id="3" name="Логин" dataDxfId="13"/>
-    <tableColumn id="4" name="Почта" dataDxfId="12"/>
-    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="11"/>
-    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="10"/>
-    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="9"/>
-    <tableColumn id="8" name="Может создавать заявки" dataDxfId="8"/>
-    <tableColumn id="9" name="Может создавать аварийные заявки" dataDxfId="7"/>
-    <tableColumn id="10" name="Может рассматривать заявки" dataDxfId="6"/>
-    <tableColumn id="11" name="Может открывать закрывать заявки" dataDxfId="5"/>
-    <tableColumn id="12" name="Может редактировать оборудование" dataDxfId="4"/>
-    <tableColumn id="13" name="Может редактировать пользователей" dataDxfId="3"/>
-    <tableColumn id="14" name="Может согласовывать заявки" dataDxfId="2"/>
+    <tableColumn id="1" name="Имя" dataDxfId="13"/>
+    <tableColumn id="2" name="Домен" dataDxfId="12"/>
+    <tableColumn id="3" name="Логин" dataDxfId="11"/>
+    <tableColumn id="4" name="Почта" dataDxfId="10"/>
+    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="9"/>
+    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="8"/>
+    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="7"/>
+    <tableColumn id="8" name="Может создавать заявки" dataDxfId="6"/>
+    <tableColumn id="9" name="Может создавать аварийные заявки" dataDxfId="5"/>
+    <tableColumn id="10" name="Может рассматривать заявки" dataDxfId="4"/>
+    <tableColumn id="11" name="Может открывать закрывать заявки" dataDxfId="3"/>
+    <tableColumn id="12" name="Может редактировать оборудование" dataDxfId="2"/>
+    <tableColumn id="13" name="Может редактировать пользователей" dataDxfId="1"/>
+    <tableColumn id="14" name="Может согласовывать заявки" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1253,18 +1352,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P100"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
@@ -1272,7 +1374,7 @@
     <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -1307,31 +1409,31 @@
         <v>9</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>CONCATENATE(C2,"@votges.rushydro.ru")</f>
-        <v>deevap@votges.rushydro.ru</v>
+        <f t="shared" ref="D2:D4" si="0">CONCATENATE(C2,"@votges.rushydro.ru")</f>
+        <v>gschu@votges.rushydro.ru</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1346,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1357,195 +1459,195 @@
       <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="P2" t="str">
         <f>CONCATENATE("insert into users values('",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,")")</f>
-        <v>insert into users values('CORP\deevap','Деев А.П.','deevap@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
+        <v>insert into users values('CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0)</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
+      <c r="A3" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D30" si="0">CONCATENATE(C3,"@votges.rushydro.ru")</f>
-        <v>alekseevvg@votges.rushydro.ru</v>
+        <f t="shared" si="0"/>
+        <v>BazhenovSV@votges.rushydro.ru</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P30" si="1">CONCATENATE("insert into users values('",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,")")</f>
-        <v>insert into users values('CORP\alekseevvg','Алексеев В.Г.','alekseevvg@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+        <f>CONCATENATE("insert into users values('",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,")")</f>
+        <v>insert into users values('CORP\BazhenovSV','Баженов С.В.','BazhenovSV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
+      <c r="A4" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>votintcevan@votges.rushydro.ru</v>
+        <v>ChekunovaMV@votges.rushydro.ru</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>1</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\votintcevan','Вотинцев А.Н.','votintcevan@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+        <f t="shared" ref="P4:P47" si="1">CONCATENATE("insert into users values('",B4,"\",C4,"','",A4,"','",D4,"',",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,")")</f>
+        <v>insert into users values('CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>balabanovv@votges.rushydro.ru</v>
+        <f>CONCATENATE(C5,"@votges.rushydro.ru")</f>
+        <v>ByakovAG@votges.rushydro.ru</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\balabanovv','Балабанов В.В.','balabanovv@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
+        <v>insert into users values('CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>tsirlinsl@votges.rushydro.ru</v>
+        <f>CONCATENATE(C6,"@votges.rushydro.ru")</f>
+        <v>DeevAP@votges.rushydro.ru</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1554,26 +1656,26 @@
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\tsirlinsl','Цирлин С.Л.','tsirlinsl@votges.rushydro.ru',0,1,1,1,1,0,1,0,0,1)</v>
+        <v>insert into users values('CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>alekseevvv@votges.rushydro.ru</v>
+        <f t="shared" ref="D7:D35" si="2">CONCATENATE(C7,"@votges.rushydro.ru")</f>
+        <v>AlekseevVG@votges.rushydro.ru</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1582,19 +1684,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1603,26 +1705,26 @@
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\alekseevvv','Алексеев В.В.','alekseevvv@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>lukinsv@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>VotintsevAN@votges.rushydro.ru</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1631,19 +1733,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1652,29 +1754,29 @@
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\lukinsv','Лукин С.В.','lukinsv@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>borisevitchvi@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>BalabanovVV@votges.rushydro.ru</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1695,32 +1797,32 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\borisevitchvi','Борисевич В.И.','borisevitchvi@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>salnikovsm@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>TsirlinSL@votges.rushydro.ru</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1738,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1750,26 +1852,26 @@
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\salnikovsm','Сальников С.М.','salnikovsm@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,1,1,0,1,0,0,1)</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>chirkari@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>AlekseevVV@votges.rushydro.ru</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1803,22 +1905,22 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\chirkari','Чирка Р.И.','chirkari@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ivanovav@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>LukinSV@votges.rushydro.ru</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1852,22 +1954,22 @@
       </c>
       <c r="P12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ivanovav','Иванов А.В.','ivanovav@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>polyaninav@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>BorisevichVI@votges.rushydro.ru</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1901,22 +2003,22 @@
       </c>
       <c r="P13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\polyaninav','Полянин А.В.','polyaninav@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>russkihai@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>SalnikovSM@votges.rushydro.ru</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1950,22 +2052,22 @@
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\russkihai','Русских А.И.','russkihai@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>gunchenkoaa@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>ChirkaRI@votges.rushydro.ru</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1999,22 +2101,22 @@
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\gunchenkoaa','Гунченко А.А.','gunchenkoaa@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>michailovvv@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>IvanovAV@votges.rushydro.ru</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -2048,22 +2150,22 @@
       </c>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\michailovvv','Михайлов В.В.','michailovvv@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\IvanovAV','Иванов А.В.','IvanovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>burnischevkn@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>PolyaninAV@votges.rushydro.ru</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -2097,22 +2199,22 @@
       </c>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\burnischevkn','Бурнышев К.Н.','burnischevkn@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>trefilovav@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>RusskihAI@votges.rushydro.ru</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -2146,28 +2248,28 @@
       </c>
       <c r="P18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\trefilovav','Трефилов А.В.','trefilovav@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ketovalz@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>GunchenkoAA@votges.rushydro.ru</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -2195,28 +2297,28 @@
       </c>
       <c r="P19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ketovalz','Кетова Л.З.','ketovalz@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>fisenkosv@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>MihaylovVV@votges.rushydro.ru</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -2244,28 +2346,28 @@
       </c>
       <c r="P20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\fisenkosv','Фисенко С.В.','fisenkosv@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>kirienkodm@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>BurnyshevKN@votges.rushydro.ru</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -2293,28 +2395,28 @@
       </c>
       <c r="P21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\kirienkodm','Кириенко Д.М.','kirienkodm@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sentybovan@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>TrefilovAV@votges.rushydro.ru</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -2342,28 +2444,28 @@
       </c>
       <c r="P22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\sentybovan','Сентябов А.Н.','sentybovan@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>kocheevnn@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>KetovaLZ@votges.rushydro.ru</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -2372,13 +2474,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -2387,32 +2489,32 @@
         <v>0</v>
       </c>
       <c r="N23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\kocheevnn','Кочеев Н.Н.','kocheevnn@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>lazarevai@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>FisenkoSV@votges.rushydro.ru</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -2421,13 +2523,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -2436,32 +2538,32 @@
         <v>0</v>
       </c>
       <c r="N24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\lazarevai','Лазарев А.И.','lazarevai@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>kuznetsovai@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>KirienkoDM@votges.rushydro.ru</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -2470,13 +2572,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -2485,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="N25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\kuznetsovai','Кузнецов А.И.','kuznetsovai@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -2503,14 +2605,14 @@
         <v>63</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>zykovsl@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>SentyabovAA@votges.rushydro.ru</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -2519,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -2534,32 +2636,32 @@
         <v>0</v>
       </c>
       <c r="N26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\zykovsl','Зыков С.Л.','zykovsl@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>nikonovaa@votges.rushydro.ru</v>
+        <f t="shared" ref="D27" si="3">CONCATENATE(C27,"@votges.rushydro.ru")</f>
+        <v>SalnikovES@votges.rushydro.ru</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2568,13 +2670,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2583,26 +2685,26 @@
         <v>0</v>
       </c>
       <c r="N27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\nikonovaa','Никонов А.А.','nikonovaa@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>byakovata@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>KocheevNN@votges.rushydro.ru</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2636,22 +2738,22 @@
       </c>
       <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\byakovata','Бякова Т.А.','byakovata@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>chernyshovaya@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>LazarevAI@votges.rushydro.ru</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2685,127 +2787,857 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\chernyshovaya','Чернышов А.Я.','chernyshovaya@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>KuznetsovAI@votges.rushydro.ru</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ZykovSL@votges.rushydro.ru</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>NikonovAA@votges.rushydro.ru</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ByakovaTA@votges.rushydro.ru</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sidorovvl@votges.rushydro.ru</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\sidorovvl','Сидоров В.Л.','sidorovvl@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ChernyshevAA@votges.rushydro.ru</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SidorovVL@votges.rushydro.ru</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" ref="D36:D37" si="4">CONCATENATE(C36,"@votges.rushydro.ru")</f>
+        <v>KardyshevNM@votges.rushydro.ru</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\KardyshevNM','Кардышев Н.М.','KardyshevNM@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ShamsuarovRA@votges.rushydro.ru</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" ref="D38" si="5">CONCATENATE(C38,"@votges.rushydro.ru")</f>
+        <v>VasilkovVS@votges.rushydro.ru</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" ref="D39" si="6">CONCATENATE(C39,"@votges.rushydro.ru")</f>
+        <v>SharifulinAR@votges.rushydro.ru</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\SharifulinAR','Шарифулин А.Р.','SharifulinAR@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" ref="D40:D41" si="7">CONCATENATE(C40,"@votges.rushydro.ru")</f>
+        <v>BahinVV@votges.rushydro.ru</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>NovokreschenovAV@votges.rushydro.ru</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\NovokreschenovAV','Новокрещенов А.В.','NovokreschenovAV@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" ref="D42" si="8">CONCATENATE(C42,"@votges.rushydro.ru")</f>
+        <v>ShupletsovKG@votges.rushydro.ru</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('\','Турборемонт','',0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('\','Электроремонт','',0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('\','Гидроремонт','',0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="N48" s="5"/>
     </row>
@@ -3014,24 +3846,44 @@
       <c r="N99" s="5"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="12"/>
+      <c r="A100" s="4"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/������������.xlsx
+++ b/������������.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Имя</t>
   </si>
@@ -246,12 +246,6 @@
     <t>SalnikovES</t>
   </si>
   <si>
-    <t>Кардышев Н.М.</t>
-  </si>
-  <si>
-    <t>KardyshevNM</t>
-  </si>
-  <si>
     <t>Шамсуаров Р.А.</t>
   </si>
   <si>
@@ -270,24 +264,12 @@
     <t>ByakovAG</t>
   </si>
   <si>
-    <t>Шарифулин А.Р.</t>
-  </si>
-  <si>
-    <t>SharifulinAR</t>
-  </si>
-  <si>
     <t>Бахин В.В.</t>
   </si>
   <si>
     <t>BahinVV</t>
   </si>
   <si>
-    <t>Новокрещенов А.В.</t>
-  </si>
-  <si>
-    <t>NovokreschenovAV</t>
-  </si>
-  <si>
     <t>Шуплецов К.Г.</t>
   </si>
   <si>
@@ -312,19 +294,28 @@
     <t>Чекунова М.В.</t>
   </si>
   <si>
-    <t>Баженов С.В.</t>
-  </si>
-  <si>
     <t>ChekunovaMV</t>
   </si>
   <si>
-    <t>BazhenovSV</t>
-  </si>
-  <si>
     <t>ГЩУ ВотГЭС</t>
   </si>
   <si>
     <t>gschu</t>
+  </si>
+  <si>
+    <t>KurbatovVP@votges.rushydro.ru</t>
+  </si>
+  <si>
+    <t>ToschevikovVM@votges.rushydro.ru</t>
+  </si>
+  <si>
+    <t>KuzminyhIB@hvkk.rushydro.ru</t>
+  </si>
+  <si>
+    <t>Вега-сервис</t>
+  </si>
+  <si>
+    <t>IvanovaNV@votges.rushydro.ru</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1034,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N105" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N101" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N101"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Имя" dataDxfId="13"/>
     <tableColumn id="2" name="Домен" dataDxfId="12"/>
@@ -1355,13 +1346,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2:P47"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1365,7 @@
     <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="120.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1420,16 +1411,16 @@
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D4" si="0">CONCATENATE(C2,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D2:D3" si="0">CONCATENATE(C2,"@votges.rushydro.ru")</f>
         <v>gschu@votges.rushydro.ru</v>
       </c>
       <c r="E2" s="2">
@@ -1469,17 +1460,17 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>BazhenovSV@votges.rushydro.ru</v>
+        <v>ChekunovaMV@votges.rushydro.ru</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1512,72 +1503,72 @@
         <v>1</v>
       </c>
       <c r="P3" t="str">
-        <f>CONCATENATE("insert into users values('",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,")")</f>
-        <v>insert into users values('CORP\BazhenovSV','Баженов С.В.','BazhenovSV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
+        <f t="shared" ref="P3:P44" si="1">CONCATENATE("insert into users values('",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,")")</f>
+        <v>insert into users values('CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>96</v>
+      <c r="A4" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ChekunovaMV@votges.rushydro.ru</v>
+        <f>CONCATENATE(C4,"@votges.rushydro.ru")</f>
+        <v>ByakovAG@votges.rushydro.ru</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P47" si="1">CONCATENATE("insert into users values('",B4,"\",C4,"','",A4,"','",D4,"',",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,")")</f>
-        <v>insert into users values('CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>CONCATENATE(C5,"@votges.rushydro.ru")</f>
-        <v>ByakovAG@votges.rushydro.ru</v>
+        <v>DeevAP@votges.rushydro.ru</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1611,28 +1602,28 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
+        <v>insert into users values('CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>CONCATENATE(C6,"@votges.rushydro.ru")</f>
-        <v>DeevAP@votges.rushydro.ru</v>
+        <f t="shared" ref="D6:D34" si="2">CONCATENATE(C6,"@votges.rushydro.ru")</f>
+        <v>AlekseevVG@votges.rushydro.ru</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1656,26 +1647,26 @@
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
+        <v>insert into users values('CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D35" si="2">CONCATENATE(C7,"@votges.rushydro.ru")</f>
-        <v>AlekseevVG@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>VotintsevAN@votges.rushydro.ru</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1709,74 +1700,74 @@
       </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+        <v>insert into users values('CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>VotintsevAN@votges.rushydro.ru</v>
+        <v>BalabanovVV@votges.rushydro.ru</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+        <v>insert into users values('CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BalabanovVV@votges.rushydro.ru</v>
+        <v>TsirlinSL@votges.rushydro.ru</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1791,38 +1782,38 @@
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
+        <v>insert into users values('CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,1,1,0,1,0,0,1)</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>TsirlinSL@votges.rushydro.ru</v>
+        <v>AlekseevVV@votges.rushydro.ru</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1840,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1852,26 +1843,26 @@
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,1,1,0,1,0,0,1)</v>
+        <v>insert into users values('CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>AlekseevVV@votges.rushydro.ru</v>
+        <v>LukinSV@votges.rushydro.ru</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1905,22 +1896,22 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>LukinSV@votges.rushydro.ru</v>
+        <v>BorisevichVI@votges.rushydro.ru</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1954,22 +1945,22 @@
       </c>
       <c r="P12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BorisevichVI@votges.rushydro.ru</v>
+        <v>SalnikovSM@votges.rushydro.ru</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -2003,22 +1994,22 @@
       </c>
       <c r="P13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>SalnikovSM@votges.rushydro.ru</v>
+        <v>ChirkaRI@votges.rushydro.ru</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2052,22 +2043,22 @@
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ChirkaRI@votges.rushydro.ru</v>
+        <v>IvanovAV@votges.rushydro.ru</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2101,22 +2092,22 @@
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\IvanovAV','Иванов А.В.','IvanovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>IvanovAV@votges.rushydro.ru</v>
+        <v>PolyaninAV@votges.rushydro.ru</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -2150,22 +2141,22 @@
       </c>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\IvanovAV','Иванов А.В.','IvanovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>PolyaninAV@votges.rushydro.ru</v>
+        <v>RusskihAI@votges.rushydro.ru</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -2199,22 +2190,22 @@
       </c>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>RusskihAI@votges.rushydro.ru</v>
+        <v>GunchenkoAA@votges.rushydro.ru</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -2248,22 +2239,22 @@
       </c>
       <c r="P18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>GunchenkoAA@votges.rushydro.ru</v>
+        <v>MihaylovVV@votges.rushydro.ru</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2297,22 +2288,22 @@
       </c>
       <c r="P19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MihaylovVV@votges.rushydro.ru</v>
+        <v>BurnyshevKN@votges.rushydro.ru</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -2346,22 +2337,22 @@
       </c>
       <c r="P20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>BurnyshevKN@votges.rushydro.ru</v>
+        <v>TrefilovAV@votges.rushydro.ru</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2395,28 +2386,28 @@
       </c>
       <c r="P21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>TrefilovAV@votges.rushydro.ru</v>
+        <v>KetovaLZ@votges.rushydro.ru</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -2444,22 +2435,22 @@
       </c>
       <c r="P22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KetovaLZ@votges.rushydro.ru</v>
+        <v>FisenkoSV@votges.rushydro.ru</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -2493,22 +2484,22 @@
       </c>
       <c r="P23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>FisenkoSV@votges.rushydro.ru</v>
+        <v>KirienkoDM@votges.rushydro.ru</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2542,22 +2533,22 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KirienkoDM@votges.rushydro.ru</v>
+        <v>SentyabovAA@votges.rushydro.ru</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2591,22 +2582,22 @@
       </c>
       <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SentyabovAA@votges.rushydro.ru</v>
+        <f t="shared" ref="D26" si="3">CONCATENATE(C26,"@votges.rushydro.ru")</f>
+        <v>SalnikovES@votges.rushydro.ru</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2640,28 +2631,28 @@
       </c>
       <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" ref="D27" si="3">CONCATENATE(C27,"@votges.rushydro.ru")</f>
-        <v>SalnikovES@votges.rushydro.ru</v>
+        <f t="shared" si="2"/>
+        <v>KocheevNN@votges.rushydro.ru</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -2673,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2685,26 +2676,26 @@
         <v>0</v>
       </c>
       <c r="N27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KocheevNN@votges.rushydro.ru</v>
+        <v>LazarevAI@votges.rushydro.ru</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2719,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2738,22 +2729,22 @@
       </c>
       <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>LazarevAI@votges.rushydro.ru</v>
+        <v>KuznetsovAI@votges.rushydro.ru</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2768,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -2787,22 +2778,22 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>KuznetsovAI@votges.rushydro.ru</v>
+        <v>ZykovSL@votges.rushydro.ru</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2817,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2836,22 +2827,22 @@
       </c>
       <c r="P30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ZykovSL@votges.rushydro.ru</v>
+        <v>NikonovAA@votges.rushydro.ru</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2866,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2885,22 +2876,22 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>NikonovAA@votges.rushydro.ru</v>
+        <v>ByakovaTA@votges.rushydro.ru</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2915,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2934,22 +2925,22 @@
       </c>
       <c r="P32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ByakovaTA@votges.rushydro.ru</v>
+        <v>ChernyshevAA@votges.rushydro.ru</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2964,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -2983,22 +2974,22 @@
       </c>
       <c r="P33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ChernyshevAA@votges.rushydro.ru</v>
+        <v>SidorovVL@votges.rushydro.ru</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3013,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3032,22 +3023,22 @@
       </c>
       <c r="P34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SidorovVL@votges.rushydro.ru</v>
+        <f t="shared" ref="D35" si="4">CONCATENATE(C35,"@votges.rushydro.ru")</f>
+        <v>ShamsuarovRA@votges.rushydro.ru</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3062,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -3081,22 +3072,22 @@
       </c>
       <c r="P35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" ref="D36:D37" si="4">CONCATENATE(C36,"@votges.rushydro.ru")</f>
-        <v>KardyshevNM@votges.rushydro.ru</v>
+        <f t="shared" ref="D36" si="5">CONCATENATE(C36,"@votges.rushydro.ru")</f>
+        <v>VasilkovVS@votges.rushydro.ru</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3111,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -3130,22 +3121,22 @@
       </c>
       <c r="P36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KardyshevNM','Кардышев Н.М.','KardyshevNM@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ShamsuarovRA@votges.rushydro.ru</v>
+        <f t="shared" ref="D37" si="6">CONCATENATE(C37,"@votges.rushydro.ru")</f>
+        <v>BahinVV@votges.rushydro.ru</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3160,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -3179,22 +3170,22 @@
       </c>
       <c r="P37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" ref="D38" si="5">CONCATENATE(C38,"@votges.rushydro.ru")</f>
-        <v>VasilkovVS@votges.rushydro.ru</v>
+        <f t="shared" ref="D38" si="7">CONCATENATE(C38,"@votges.rushydro.ru")</f>
+        <v>ShupletsovKG@votges.rushydro.ru</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3209,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -3228,22 +3219,17 @@
       </c>
       <c r="P38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <f t="shared" ref="D39" si="6">CONCATENATE(C39,"@votges.rushydro.ru")</f>
-        <v>SharifulinAR@votges.rushydro.ru</v>
+        <v>85</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -3252,10 +3238,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -3277,22 +3263,17 @@
       </c>
       <c r="P39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SharifulinAR','Шарифулин А.Р.','SharifulinAR@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Турборемонт','KurbatovVP@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="2" t="str">
-        <f t="shared" ref="D40:D41" si="7">CONCATENATE(C40,"@votges.rushydro.ru")</f>
-        <v>BahinVV@votges.rushydro.ru</v>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3301,10 +3282,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -3326,22 +3307,17 @@
       </c>
       <c r="P40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Электроремонт','ToschevikovVM@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>NovokreschenovAV@votges.rushydro.ru</v>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3350,10 +3326,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -3375,23 +3351,16 @@
       </c>
       <c r="P41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\NovokreschenovAV','Новокрещенов А.В.','NovokreschenovAV@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Гидроремонт','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f t="shared" ref="D42" si="8">CONCATENATE(C42,"@votges.rushydro.ru")</f>
-        <v>ShupletsovKG@votges.rushydro.ru</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2">
         <v>0</v>
       </c>
@@ -3399,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -3424,12 +3393,12 @@
       </c>
       <c r="P42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3466,16 +3435,16 @@
       </c>
       <c r="P43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('\','Турборемонт','',0,1,0,0,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E44" s="2">
         <v>0</v>
       </c>
@@ -3508,134 +3477,20 @@
       </c>
       <c r="P44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('\','Электроремонт','',0,1,0,0,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Вега-сервис','IvanovaNV@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
-        <v>1</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Гидроремонт','',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5">
-        <v>1</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5">
-        <v>1</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3850,36 +3705,20 @@
       <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="N101" s="5"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="N102" s="5"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="N103" s="5"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="N104" s="5"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="12"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
